--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.614</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.55</v>
+        <v>14.979</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.177</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.041</v>
+        <v>17.244</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.761</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.124</v>
+        <v>4.496</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.851265741193885</v>
+        <v>15.72305064768662</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.15507150097988</v>
+        <v>18.42727701271298</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.22562189665859</v>
+        <v>30.84171494360067</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.356466846401283</v>
+        <v>2.084131433564867</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.83198199702277</v>
+        <v>20.45961271052035</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.14248158469555</v>
+        <v>26.0003537059143</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.01073095384992</v>
+        <v>10.09702682281744</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.16994324398515</v>
+        <v>32.59948876855623</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.34287062759591</v>
+        <v>40.03687726247273</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.54064159262272</v>
+        <v>19.69893288251916</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.00711038372447</v>
+        <v>23.12845212441683</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.14655912923998</v>
+        <v>22.37823019868872</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.10257796230592</v>
+        <v>11.86589754648776</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.5496497122538</v>
+        <v>14.31446511370082</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.71706117254757</v>
+        <v>32.41931978843667</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.34388734120926</v>
+        <v>13.69207796608632</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.61875500687901</v>
+        <v>26.0254442049243</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.78040683354752</v>
+        <v>32.75087342806066</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.232486045935378</v>
+        <v>1.865877766960953</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.63473426501767</v>
+        <v>10.0713281257672</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.07008981904266</v>
+        <v>14.90901868236483</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.01679224826026</v>
+        <v>2.375279265784176</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.16497264099498</v>
+        <v>16.43639456249791</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5.068564675688233</v>
+        <v>17.38544080673896</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.43739505358371</v>
+        <v>26.42975999002909</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.51154094418307</v>
+        <v>28.91005008158206</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.658064087863945</v>
+        <v>1.253949527270155</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.2065824248083</v>
+        <v>32.87145302352164</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.52034388084161</v>
+        <v>33.75109670834726</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.4059015570334</v>
+        <v>6.387289437650001</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.6294355153086</v>
+        <v>45.55095589051247</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.80633056945052</v>
+        <v>45.77040042395863</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.94338608323306</v>
+        <v>47.50661982308148</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.42923841012595</v>
+        <v>50.68681504308815</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.57154958891551</v>
+        <v>49.99685580330042</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>12.4101817825181</v>
+        <v>19.88590649427852</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.95216979943158</v>
+        <v>41.06719658744545</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.11978901839168</v>
+        <v>50.8617166239442</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.566895530373131</v>
+        <v>16.01265685943742</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>20.90673373957169</v>
+        <v>34.13815299262831</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.07272121180518</v>
+        <v>36.19518211074924</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.539239534064667</v>
+        <v>3.250338918675372</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>19.01443579010457</v>
+        <v>29.51758205613962</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.45378095581923</v>
+        <v>34.95824085351049</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13.41771916317065</v>
+        <v>3.591204019562813</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>27.63016787612518</v>
+        <v>45.43308153360933</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.268023422153853</v>
+        <v>8.881665347416661</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.63933749590271</v>
+        <v>21.26432422586864</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>24.71352617240117</v>
+        <v>25.30974447632339</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.885457796570261</v>
+        <v>-0.1872761044308469</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>18.4370388353516</v>
+        <v>30.7741774749367</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.75129550547096</v>
+        <v>34.67229100596538</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.64153116670192</v>
+        <v>5.947233893315232</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.86758674270695</v>
+        <v>46.42257160880949</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.04446011986953</v>
+        <v>49.73312053118924</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.17007290165365</v>
+        <v>49.604805867219</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.65376574556323</v>
+        <v>50.16947045716178</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38.7967062284703</v>
+        <v>52.67961389871182</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12.62504650132715</v>
+        <v>9.352579491869452</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.17544157924439</v>
+        <v>32.98411616813678</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>38.34192777203553</v>
+        <v>45.14142522735895</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6.765274504621761</v>
+        <v>10.31080175841652</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>21.10741133025723</v>
+        <v>29.95321142076945</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.27358552267747</v>
+        <v>34.1620372422545</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.765526385453274</v>
+        <v>2.031337612374532</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>19.24362369230933</v>
+        <v>24.71087389121846</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24.68358178785795</v>
+        <v>37.22370573584192</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>13.65221665878637</v>
+        <v>5.047473880449136</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.8669847636333</v>
+        <v>44.47110495614604</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.559859277027726</v>
+        <v>4.436209475565452</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.91728018548933</v>
+        <v>14.32997767838093</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.9997856064788</v>
+        <v>21.61349482999085</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.12359388057412</v>
+        <v>0.2898920373409375</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17.65853215381157</v>
+        <v>28.53542172512993</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.98196948572906</v>
+        <v>35.84609111731895</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.83802622749018</v>
+        <v>0.9043298294476223</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.05036579788835</v>
+        <v>41.74130216681912</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.23549186066482</v>
+        <v>47.86496547130518</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.39191879936116</v>
+        <v>36.49506066793808</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.87502311282817</v>
+        <v>38.58895303572794</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.02315323770483</v>
+        <v>39.68940757691962</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.87524079902609</v>
+        <v>2.175357631921234</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.40100085220538</v>
+        <v>26.52638503272555</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.58234622942766</v>
+        <v>42.46014919653911</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.055103680163612</v>
+        <v>6.331166376082681</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>20.38328787044468</v>
+        <v>27.27266321121751</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.55752636334898</v>
+        <v>35.62369049338521</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.000690739687137</v>
+        <v>2.172854636229662</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>18.461998822224</v>
+        <v>23.99806663799403</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.91096038658233</v>
+        <v>38.4416504214382</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.84553580437866</v>
+        <v>2.059436816145709</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.04656217800115</v>
+        <v>37.47082679746288</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.4235694772194</v>
+        <v>23.46545615245678</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.10306356172978</v>
+        <v>18.5454166400258</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.60758485307365</v>
+        <v>31.36807545186869</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.94149430424464</v>
+        <v>36.02385381866236</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.04861743927695</v>
+        <v>3.697812642190261</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.69753923778839</v>
+        <v>13.71624219328786</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.75931238653939</v>
+        <v>20.81064264720593</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.26792150789342</v>
+        <v>10.20916986551373</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.37213213619449</v>
+        <v>20.91437421379243</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.7591608337538</v>
+        <v>32.98871391815385</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.17785044658799</v>
+        <v>1.452682770124003</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.48274388423874</v>
+        <v>9.075291491438296</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.10246829827063</v>
+        <v>13.55151743565694</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.9775528407404</v>
+        <v>1.128413514133118</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.95179483327252</v>
+        <v>17.87005771723054</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.45476198089901</v>
+        <v>33.84027505666123</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>39.75242311676242</v>
+        <v>22.32880590446326</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.55744034958251</v>
+        <v>42.46372690627598</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.11256104110001</v>
+        <v>47.5447515992295</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.64085948019552</v>
+        <v>3.03287690525821</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.65677406962904</v>
+        <v>16.49814842746077</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.97407508836571</v>
+        <v>25.25991086654978</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.89348057336055</v>
+        <v>53.55629430274541</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.50886603422606</v>
+        <v>53.29890746590398</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.03300309888845</v>
+        <v>61.41086827364508</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>39.37022238187215</v>
+        <v>61.39037772174103</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>13.36061631191415</v>
+        <v>18.31923152902286</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.10446854183132</v>
+        <v>55.64129921356279</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>39.16742977213479</v>
+        <v>59.50027548987185</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>14.55489427587842</v>
+        <v>18.73975234787315</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.72574771765229</v>
+        <v>37.96848202438292</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.1166752322897</v>
+        <v>42.70734176731662</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>12.55251200767853</v>
+        <v>4.57435058681796</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.93226943417972</v>
+        <v>41.22802348886754</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>34.55552588216366</v>
+        <v>44.01860211592711</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.45156869759654</v>
+        <v>6.761429341218051</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.49170378295737</v>
+        <v>61.84551691953871</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.99900697308581</v>
+        <v>65.42988695418367</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>41.23300945109187</v>
+        <v>78.72668466020252</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>48.05683044484958</v>
+        <v>82.59515829011832</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>51.61481155533843</v>
+        <v>84.55280459459277</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>23.02365238759326</v>
+        <v>29.12237014658212</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>43.1368152222302</v>
+        <v>73.36199618790747</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.45461408337786</v>
+        <v>77.22641084717566</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.13042649773504</v>
+        <v>59.11324407755403</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.73375807448665</v>
+        <v>45.78778633040028</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.25570240919957</v>
+        <v>51.65927653798195</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>39.5934485465076</v>
+        <v>59.3434101111265</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.57440469690296</v>
+        <v>8.728135423436246</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>32.32617517535554</v>
+        <v>50.50488182744022</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>39.38835529021417</v>
+        <v>58.01004032184949</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.76481972281316</v>
+        <v>12.227550056302</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.93790652116816</v>
+        <v>34.88142849649748</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.32863288271983</v>
+        <v>41.79195639712142</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12.79019649740703</v>
+        <v>2.345891062206025</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.1727859438466</v>
+        <v>37.36451472511632</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34.79629088933811</v>
+        <v>46.55065032243007</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.69816361949447</v>
+        <v>6.434111726393557</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.74054983643616</v>
+        <v>62.46363787194366</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>44.24758758968642</v>
+        <v>71.14638236663399</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.46910651641182</v>
+        <v>78.12106732659498</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>48.29041963617695</v>
+        <v>79.63342241208233</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>51.84865207809342</v>
+        <v>87.46659020209387</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.24878368281185</v>
+        <v>14.65559685522021</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>43.3696291602467</v>
+        <v>68.05087400047685</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.68619261834145</v>
+        <v>80.00169414294939</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.31798984162393</v>
+        <v>57.21472119837411</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.95303903790285</v>
+        <v>26.21885724900131</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.47428857077361</v>
+        <v>33.23455996038339</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>38.81735644141682</v>
+        <v>45.01983596217369</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.82226623963754</v>
+        <v>4.721961997251871</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.54964888592163</v>
+        <v>47.22592313200838</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.62597344567521</v>
+        <v>57.5175831928473</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.03391156350499</v>
+        <v>8.308414387928284</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.19362391409455</v>
+        <v>33.41104199798914</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.59309204921887</v>
+        <v>45.62984531647632</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.00436836571973</v>
+        <v>2.786933680395752</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.37076630567354</v>
+        <v>34.71929611883533</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.00387963910148</v>
+        <v>49.44432293669641</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.86937585157462</v>
+        <v>2.632704017400844</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.89861814070341</v>
+        <v>52.85445752924076</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.4143181088797</v>
+        <v>71.69507882180281</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.66827168242688</v>
+        <v>60.40885601242132</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>47.4899578147911</v>
+        <v>70.16052183413444</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>51.05416829440784</v>
+        <v>87.43577022519398</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.47471362559487</v>
+        <v>6.18399684469745</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.5723384188581</v>
+        <v>57.50280338282931</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.90400570509009</v>
+        <v>77.50628047665333</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.754890979965026</v>
+        <v>12.84359769944843</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.88164967654762</v>
+        <v>18.42981311426837</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.64506397524743</v>
+        <v>32.78065456544107</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.412569530984719</v>
+        <v>1.576819447585539</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.69395947647757</v>
+        <v>24.95185396677896</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.65458280951971</v>
+        <v>29.55155909404822</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.8453280470851</v>
+        <v>8.433660313590938</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.82043437054438</v>
+        <v>42.85565506880629</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.6786499942132</v>
+        <v>49.66180940696704</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.06706714162797</v>
+        <v>27.89128760105539</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.45506499475262</v>
+        <v>36.28400391184599</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.35583940740894</v>
+        <v>36.159471567308</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.68107869298904</v>
+        <v>19.25145964523012</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.87686011930145</v>
+        <v>20.47085024712846</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.65046409572935</v>
+        <v>47.4232026364499</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.184761356458537</v>
+        <v>13.03338734803686</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.27370232666382</v>
+        <v>26.46126151263558</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.15165497987992</v>
+        <v>31.01943550225041</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.211050816621849</v>
+        <v>-2.808773400866524</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.40599161763475</v>
+        <v>11.51115115749491</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.51387576208059</v>
+        <v>15.42937258792833</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.79354318509854</v>
+        <v>1.344543032294983</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.74939542262327</v>
+        <v>29.18626540588611</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>4.959528069993667</v>
+        <v>15.2319085497291</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.15128471417239</v>
+        <v>23.45207795199441</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.91703550354656</v>
+        <v>31.26793237719808</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2.702386679164441</v>
+        <v>1.336409210384861</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>18.056851933038</v>
+        <v>35.82257918095239</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.01935499816341</v>
+        <v>35.83278376486022</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>12.22691715851902</v>
+        <v>7.507895245259707</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.26627072717628</v>
+        <v>51.46783174128345</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.12715307275051</v>
+        <v>53.64429348967326</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.45492915986652</v>
+        <v>51.40002497983116</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.86185478286204</v>
+        <v>56.5215655890691</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37.76498881278258</v>
+        <v>56.29753414151448</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>11.97444517647761</v>
+        <v>23.21578665138</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.26537711893413</v>
+        <v>42.76686616104922</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.03792454308652</v>
+        <v>55.79949566993577</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>6.396760223386661</v>
+        <v>16.3768287969435</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>20.5506369721146</v>
+        <v>33.90570610488111</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.43178452355846</v>
+        <v>35.68118920157993</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>3.507443328759575</v>
+        <v>-0.5112306422432162</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>18.77537650293311</v>
+        <v>33.14754270166512</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>23.88597578960408</v>
+        <v>35.43751626973341</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.18262703341018</v>
+        <v>2.926812031794245</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.20266872499476</v>
+        <v>52.74740994974732</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.15698473484915</v>
+        <v>5.443883835824497</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.35149037724705</v>
+        <v>17.37958031208538</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.11705200339971</v>
+        <v>27.2894738690105</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2.927762166602129</v>
+        <v>-0.637382417245643</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.28558706228073</v>
+        <v>33.62378351681535</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.24835866231888</v>
+        <v>36.08583175512477</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>12.46031575614008</v>
+        <v>6.556496314973206</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.50245851427526</v>
+        <v>50.49347203404741</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.36308581285521</v>
+        <v>56.66025563738201</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.67943114809098</v>
+        <v>55.173255271767</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.08421202299711</v>
+        <v>57.77499762598399</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.98793616667622</v>
+        <v>61.66348104950511</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.18712779429732</v>
+        <v>11.86795749101023</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.48692081898314</v>
+        <v>35.00336131790998</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>37.25786210364289</v>
+        <v>48.4866663561375</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>6.593296898257051</v>
+        <v>9.838657299623041</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.74974126253114</v>
+        <v>29.05837810003549</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.63085147542542</v>
+        <v>33.15999443036146</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3.731842801775144</v>
+        <v>-2.022575003253788</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>19.00297758959424</v>
+        <v>27.6414752910868</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.11396925745817</v>
+        <v>36.1253427251125</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.41506055145751</v>
+        <v>2.929589403707016</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.43769365058321</v>
+        <v>48.41546684537535</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4.456880599377882</v>
+        <v>1.744582694973335</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.63724274291106</v>
+        <v>13.14212337023448</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.4113131003979</v>
+        <v>27.19750941216173</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2.173672525064514</v>
+        <v>-0.9807138732666054</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.51451201133545</v>
+        <v>32.95608696096841</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.48666365691387</v>
+        <v>38.84854877326063</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.66528216370145</v>
+        <v>0.7144425475775087</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.69347346892931</v>
+        <v>46.8221568574313</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.5625623700754</v>
+        <v>56.82264574467335</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.91006574569028</v>
+        <v>47.53893432755869</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.31442833891958</v>
+        <v>54.54781399920914</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.22314941994913</v>
+        <v>57.66963749970809</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.4458008084802</v>
+        <v>7.110439687450057</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.72051602726496</v>
+        <v>31.32989441093666</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.50620920850633</v>
+        <v>52.28315801139422</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.88987272230797</v>
+        <v>6.329754908377485</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>20.03209273124626</v>
+        <v>26.25699360272643</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.92142964410679</v>
+        <v>32.25354482445294</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2.973579308450354</v>
+        <v>-2.819701026514704</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.22756495548494</v>
+        <v>24.15291540511554</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.34773419799482</v>
+        <v>31.82993439854971</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.61548320008064</v>
+        <v>-0.8099085141799627</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.6241162061407</v>
+        <v>39.73506398315642</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.71723023645369</v>
+        <v>32.0105079752488</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.58792592896931</v>
+        <v>22.72143051454538</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.97944345369388</v>
+        <v>39.59344649171479</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.09494886510964</v>
+        <v>38.44088224938425</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.5631063000024</v>
+        <v>10.10141006340101</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.9335647820051</v>
+        <v>18.82636784858723</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.64378222561841</v>
+        <v>29.63159566607223</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.24732522606496</v>
+        <v>11.70942969010406</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.21488778628594</v>
+        <v>24.8343319095514</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.29446300967339</v>
+        <v>38.16109042287798</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11.25538772102359</v>
+        <v>-2.273930148109397</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.41424196564969</v>
+        <v>11.52620696857571</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.68062563565218</v>
+        <v>19.47451313934448</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>21.86672244047059</v>
+        <v>0.8875675835058736</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.69682789599147</v>
+        <v>30.98600510472017</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>41.88565372004669</v>
+        <v>47.17444387882313</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>39.34463444480902</v>
+        <v>27.42771544997033</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.07653010243358</v>
+        <v>46.38652935272694</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.38670507791964</v>
+        <v>54.3262756314229</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.29130375813863</v>
+        <v>7.602017501760091</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>41.10948990874925</v>
+        <v>26.36265009948935</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.04326503254011</v>
+        <v>40.7222791906803</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.17404256314872</v>
+        <v>57.09164836767334</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.98059485770709</v>
+        <v>54.63235656532969</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.39125942639718</v>
+        <v>62.01601122316758</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>38.50967570129861</v>
+        <v>59.55140284697511</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>12.86244738392069</v>
+        <v>21.87585318752628</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31.32807527092672</v>
+        <v>57.06200946460535</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.03838735541822</v>
+        <v>59.73464876941483</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.52278505930569</v>
+        <v>18.8688128252523</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.55695811061459</v>
+        <v>36.91465077913335</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.63916242451804</v>
+        <v>43.5914912550939</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.61946778810911</v>
+        <v>0.3433682450116784</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.85326349902971</v>
+        <v>43.02126219448706</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.12178583479817</v>
+        <v>44.66450292902226</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.32847161383319</v>
+        <v>5.530266827823485</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>38.22438984992834</v>
+        <v>65.29602647940104</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.41624189136793</v>
+        <v>69.01401377523169</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>40.8115828625989</v>
+        <v>74.87978713055884</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>47.56171687092494</v>
+        <v>78.39460150755963</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>50.87424534784924</v>
+        <v>82.88026206671736</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.6611131134925</v>
+        <v>28.70063317091632</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>42.57671735925253</v>
+        <v>77.64765427153282</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>49.50973437513331</v>
+        <v>78.55003508886244</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>32.40897176290134</v>
+        <v>59.48034405396815</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.20346723134593</v>
+        <v>48.34297289815264</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.61199731340906</v>
+        <v>52.64664624141126</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.73088736878918</v>
+        <v>57.75150242889302</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.0742270306446</v>
+        <v>10.89167710077209</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.54824220336599</v>
+        <v>50.67357004774088</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.25731191846004</v>
+        <v>56.02901203653633</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.73097918739964</v>
+        <v>11.76101073870456</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.76760380806913</v>
+        <v>33.42333321033664</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.84937587522124</v>
+        <v>42.04798380184093</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.85552516675531</v>
+        <v>-1.805125831641472</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.0923973916745</v>
+        <v>39.21289485763853</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.36094313327165</v>
+        <v>45.41594437010596</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.5732209631164</v>
+        <v>4.523218027518457</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>38.47161138356794</v>
+        <v>63.69409867132865</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>43.66296563811693</v>
+        <v>72.19966455191778</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.04587397201845</v>
+        <v>74.05448196690787</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>47.79350541566366</v>
+        <v>77.60939175804552</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>51.10623457688808</v>
+        <v>86.14153514175487</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.88445485471991</v>
+        <v>13.69269184816938</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>42.80812081594796</v>
+        <v>73.6834786928415</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>49.73943427929086</v>
+        <v>79.27645109935975</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.60355659321953</v>
+        <v>53.56252831873346</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.43017359360204</v>
+        <v>28.63942848315913</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.83812889902315</v>
+        <v>35.99887138082448</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.9621149896354</v>
+        <v>40.24898341976274</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.32928873091842</v>
+        <v>6.129002206199747</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.77841372992209</v>
+        <v>42.63530467961343</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>37.50149588964656</v>
+        <v>50.59462127917126</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.00762820565502</v>
+        <v>7.099107574177996</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.03071608651276</v>
+        <v>33.59113480541274</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.12142371184871</v>
+        <v>44.94383582845867</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>12.07689831305922</v>
+        <v>-1.268995069404237</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.29733235482166</v>
+        <v>38.0113562502201</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.57568330273795</v>
+        <v>46.59349005086182</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.75231666123071</v>
+        <v>0.8623754783616882</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>37.63741522980656</v>
+        <v>58.55549010496244</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.83764194213352</v>
+        <v>73.14205037982674</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.253325444157</v>
+        <v>62.34644640097002</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.00157895088904</v>
+        <v>75.07739538874361</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>50.32008246663425</v>
+        <v>86.74953993711088</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.11835067931392</v>
+        <v>7.902422774167068</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.01851245437081</v>
+        <v>68.24547665590904</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.96483422156304</v>
+        <v>81.34988143178151</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.08055610249700607</v>
+        <v>7.361953951057021</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14.41140615918666</v>
+        <v>9.063482193397252</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.18605912258862</v>
+        <v>20.91672169143928</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.382809047901731</v>
+        <v>-1.696721881401</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>13.12824658206001</v>
+        <v>9.791670060997919</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>18.10026251893783</v>
+        <v>13.82949604649767</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.016099303823594</v>
+        <v>2.68023102219755</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.19269063862826</v>
+        <v>25.27614444891882</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.06340891162763</v>
+        <v>30.65360859959606</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.83932308376458</v>
+        <v>13.75145725813039</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.29352736355435</v>
+        <v>22.90348689827501</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.19045679376201</v>
+        <v>23.85270234184297</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.276461408085964</v>
+        <v>10.79114594384089</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.76831413598534</v>
+        <v>8.105606138854217</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.5466431578117</v>
+        <v>27.4611762740822</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>1.970249171322411</v>
+        <v>12.97422511164649</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16.2632445534201</v>
+        <v>27.04237998467629</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.15652990262645</v>
+        <v>32.13764443993854</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.114293949904756</v>
+        <v>-3.046425795041014</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.30922021502526</v>
+        <v>11.00397540178357</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.43353564914104</v>
+        <v>16.18876838110244</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.464332372850507</v>
+        <v>1.004681460531035</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.62183572360853</v>
+        <v>31.07625053339486</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1.290357035044135</v>
+        <v>10.91073575183725</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>15.68704578242854</v>
+        <v>16.15718516050091</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>20.46397268175527</v>
+        <v>21.71796751424548</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1.087133760498379</v>
+        <v>-0.4441713795409292</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>14.49795103508624</v>
+        <v>24.37361107173746</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>19.47176082688195</v>
+        <v>24.20917281264409</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>8.404153157605005</v>
+        <v>3.405880168708169</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.64582278578754</v>
+        <v>37.83105559126118</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.5191494497917</v>
+        <v>38.24162085165283</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.23434478854064</v>
+        <v>37.91706939165707</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.70772336286075</v>
+        <v>44.35378212656371</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.60689195893506</v>
+        <v>45.52567384994089</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>8.575891952902037</v>
+        <v>14.82032637857563</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.16419760173216</v>
+        <v>30.71974907437171</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.94142048705518</v>
+        <v>38.27591491194011</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>3.188186707764597</v>
+        <v>15.75828939369814</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>17.54695032581883</v>
+        <v>35.32380650487067</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>22.44336820956441</v>
+        <v>36.94474497116246</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.1887727713089475</v>
+        <v>-1.556112616978194</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>15.68622395538454</v>
+        <v>34.71477474691744</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>20.81316664103374</v>
+        <v>37.40433857250203</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.860745960981475</v>
+        <v>1.761920648579096</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.08326224283513</v>
+        <v>56.33713674001244</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>1.493235946365527</v>
+        <v>3.055261490477168</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.89268203754533</v>
+        <v>11.44458147108941</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.66938804264538</v>
+        <v>18.98459471651345</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-0.8560714220498973</v>
+        <v>-1.548584169236815</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>14.73237963816402</v>
+        <v>22.72093530979136</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.70642198945298</v>
+        <v>24.74502020019107</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>8.643494895050733</v>
+        <v>4.731264107144657</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.88796198162616</v>
+        <v>38.89202181696881</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.7610013542339</v>
+        <v>43.05007658066064</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.46430915084034</v>
+        <v>43.28684315490801</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.93554564986479</v>
+        <v>47.00482355909743</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.83526637484245</v>
+        <v>52.44436016683279</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>8.793917468812641</v>
+        <v>6.396706789789111</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.39112952621167</v>
+        <v>24.74949633035482</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.16671454329946</v>
+        <v>33.0180101617934</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>3.389899900910507</v>
+        <v>11.58003413217449</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>17.75123856931915</v>
+        <v>33.28368761076817</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.64758301315373</v>
+        <v>36.43282824384377</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.4186125089898312</v>
+        <v>-1.594145365485954</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.91927208341357</v>
+        <v>31.40989593173503</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.04656470558404</v>
+        <v>39.13958854591749</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.09885987000618</v>
+        <v>4.572857086963271</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.32397474753242</v>
+        <v>55.42285437172674</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.7835067212535129</v>
+        <v>0.6674518056777892</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.16865838357734</v>
+        <v>7.193755982448099</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.95394669589988</v>
+        <v>19.81034414873008</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.620404433593428</v>
+        <v>-1.839526897481189</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.95088611138405</v>
+        <v>19.72719143413362</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.93439926198814</v>
+        <v>26.99915685561293</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.837785728852555</v>
+        <v>-1.389754474091657</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.06815149246877</v>
+        <v>32.4354966480286</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.94972578745844</v>
+        <v>42.10134147518519</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.68490297153611</v>
+        <v>35.25918297873014</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.1556875171478</v>
+        <v>42.41656886203569</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.06048230819725</v>
+        <v>48.39727953819366</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>8.042910109168641</v>
+        <v>3.42863440700447</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.61477488322026</v>
+        <v>20.864506977782</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.40517215224353</v>
+        <v>36.34807688359632</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>2.677169281547336</v>
+        <v>8.163036292756065</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>17.02413704839543</v>
+        <v>30.38810968508821</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.92878942951915</v>
+        <v>35.33124082139956</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.3495870288504044</v>
+        <v>-2.140785833411282</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>15.13375123037261</v>
+        <v>27.04331576260055</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.27032286772208</v>
+        <v>34.45339662772537</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>9.288935500319347</v>
+        <v>0.3012674776262578</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.49990479723606</v>
+        <v>45.19638784138384</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.60623026501233</v>
+        <v>34.46991459621918</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.82716342861418</v>
+        <v>25.55688691418294</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.28479983526185</v>
+        <v>42.68333135333866</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.39726070449724</v>
+        <v>41.72936551111661</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.625785544835793</v>
+        <v>10.5442077352657</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.28981312918751</v>
+        <v>23.57392504063444</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.01155877956317</v>
+        <v>33.84880631529876</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.21107362469452</v>
+        <v>13.3006144456686</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.38797238330915</v>
+        <v>26.65602605573875</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.47448741399746</v>
+        <v>40.94237139148564</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.120951547418326</v>
+        <v>-4.512912307595681</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.51517585796386</v>
+        <v>10.45093638236714</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.78650986542102</v>
+        <v>16.29302333895638</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.73232492984806</v>
+        <v>-0.9070550600916896</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.76876153493698</v>
+        <v>32.3482925942628</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.96629551685468</v>
+        <v>47.54380293150112</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.77786498212595</v>
+        <v>30.42747278899475</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.58140507779861</v>
+        <v>50.4532094626004</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>46.87890307943455</v>
+        <v>54.88812241097594</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>18.51941918869935</v>
+        <v>6.41736428027048</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.64826127538453</v>
+        <v>29.1984969774492</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.57897498377844</v>
+        <v>41.63822129969151</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.0711385482256</v>
+        <v>60.03256296717606</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.22780814329299</v>
+        <v>57.56284282038786</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.70481987030247</v>
+        <v>65.26293343859246</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.82007692732922</v>
+        <v>62.39270246161801</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>9.932007986809545</v>
+        <v>20.83285619926804</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.69247819483384</v>
+        <v>61.30147377841833</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.41426361635163</v>
+        <v>63.95129942083884</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.49297123032636</v>
+        <v>19.49054865094104</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.7373297014303</v>
+        <v>39.53454006185672</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.82641124762593</v>
+        <v>47.30971969854215</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>9.492278953137301</v>
+        <v>-0.8179760718011799</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.96240500456661</v>
+        <v>46.88755663100156</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>31.23579416102768</v>
+        <v>46.63579658586482</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>20.20201394331546</v>
+        <v>4.387302759383832</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.30510187740857</v>
+        <v>70.67491022195719</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.50560370649841</v>
+        <v>73.09685949301576</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>38.25339748116843</v>
+        <v>80.09354665094276</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>45.0754142024647</v>
+        <v>84.9275190037057</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>48.37516211040266</v>
+        <v>84.96778295972231</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.8966684829746</v>
+        <v>28.34748591254169</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>40.12425709923232</v>
+        <v>83.52734397424047</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>47.05415739083689</v>
+        <v>83.93257363953319</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.31171916453204</v>
+        <v>65.02713802814358</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.45589652990557</v>
+        <v>54.64618502756197</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.930774006028</v>
+        <v>59.82959851398387</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.04646745911874</v>
+        <v>63.74055246701958</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.14888711848722</v>
+        <v>13.45459576495108</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.91778727516127</v>
+        <v>58.55340953947109</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.6382896075433</v>
+        <v>63.2300863979516</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.70630187421615</v>
+        <v>13.65754812745621</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.95311969269333</v>
+        <v>37.59266145729117</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.04173820701143</v>
+        <v>46.75884234612255</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>9.733737407198078</v>
+        <v>-1.991575524324158</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.20694473783042</v>
+        <v>44.64987612532033</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.48032394387138</v>
+        <v>48.2271323927491</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>20.45241477113279</v>
+        <v>5.516356935223772</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>35.55798261235717</v>
+        <v>71.75754029152887</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>40.75795490713229</v>
+        <v>78.33902014541246</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>38.49288221128239</v>
+        <v>82.00436871277935</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>45.31239177028168</v>
+        <v>86.95907344974194</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>48.61231248464381</v>
+        <v>90.2907802217245</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.1250922634493</v>
+        <v>16.0856022514912</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>40.36078589161676</v>
+        <v>82.69009006772848</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.2889535663423</v>
+        <v>87.23966358449667</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.49589175143807</v>
+        <v>57.98196830935646</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.67285913031343</v>
+        <v>35.65255384032014</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.14713855422373</v>
+        <v>43.36577174654349</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.26800530183533</v>
+        <v>47.88154634495646</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>9.394570566259805</v>
+        <v>9.46969138995178</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.1383224652639</v>
+        <v>50.40699133127259</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.87291548984395</v>
+        <v>56.13121181433996</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>10.97373904764348</v>
+        <v>8.373210776136947</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.20687603250319</v>
+        <v>36.27748510453205</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.30449575643358</v>
+        <v>47.90938260504021</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.945256833553323</v>
+        <v>-1.91585477276038</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.40186079440286</v>
+        <v>41.01986983604451</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.68512200084095</v>
+        <v>47.25524904032181</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.62123413098249</v>
+        <v>1.097465485714398</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.71336690410862</v>
+        <v>63.89558100846659</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.92227815721675</v>
+        <v>76.7299006624645</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.6906624809297</v>
+        <v>69.94487682110156</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.51077530950285</v>
+        <v>82.64158502610132</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>47.81652116834213</v>
+        <v>91.07828341140029</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.34965236981388</v>
+        <v>10.12389617830684</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>39.5615846161949</v>
+        <v>75.55663701458943</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>46.50481083389576</v>
+        <v>85.93932708453889</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.061762194577547</v>
+        <v>10.37747182809406</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.86503531300013</v>
+        <v>12.07347845960775</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.67369451328624</v>
+        <v>22.47462467937592</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.54846248245715</v>
+        <v>1.752785437753435</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.48481902250793</v>
+        <v>14.99384474662159</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.50140551131985</v>
+        <v>20.08284545978359</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.19630414185502</v>
+        <v>6.215763767759174</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.85634011995651</v>
+        <v>23.16022923986622</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.76254444145199</v>
+        <v>28.22638140389383</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.67768422586084</v>
+        <v>12.25454893099439</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.94710973957798</v>
+        <v>15.74335782525538</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>39.94965842490172</v>
+        <v>14.76929447451335</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.74596211864691</v>
+        <v>10.67715500571112</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>32.456230205952</v>
+        <v>9.868905491241524</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>39.30797096479856</v>
+        <v>23.61751550215505</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.240355626330029</v>
+        <v>8.849696029925216</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.0003107862013</v>
+        <v>15.58504661657918</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.90039686873799</v>
+        <v>22.08468037391231</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>6.132157978264409</v>
+        <v>7.639088476264508</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.97813751067869</v>
+        <v>9.423372961338831</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.11998880338358</v>
+        <v>13.27429763309414</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.89367487637935</v>
+        <v>2.000639735937316</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.52799916997087</v>
+        <v>8.337340066825437</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.25926564900109</v>
+        <v>15.18650636854656</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.12579392692385</v>
+        <v>22.19867920022189</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.93749786621262</v>
+        <v>24.99354729323024</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.828106183492686</v>
+        <v>2.141852342325056</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.83551661938065</v>
+        <v>27.07404926874365</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.8547572414944</v>
+        <v>29.08419790779665</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.56768804171761</v>
+        <v>5.457691655357852</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.29028416372</v>
+        <v>37.30943892131458</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.19988733519651</v>
+        <v>37.24869802700658</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.05504276207609</v>
+        <v>37.08704828967242</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.34324362836813</v>
+        <v>40.36897853288249</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.34845099947458</v>
+        <v>41.20287723895476</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.03085647759404</v>
+        <v>20.11081592673321</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.8333486601683</v>
+        <v>35.04390900982035</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.68484545924601</v>
+        <v>42.55359141017712</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.44247798657749</v>
+        <v>12.25277771328641</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.26557627037582</v>
+        <v>20.66946232887287</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.16944080710608</v>
+        <v>24.0385957431657</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.415840636708303</v>
+        <v>6.551802764156864</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.33275110422752</v>
+        <v>20.89354223129508</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.47797656728734</v>
+        <v>26.00670364909516</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.96640669830106</v>
+        <v>29.11029538655791</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>9.452123373459816</v>
+        <v>10.38945842249439</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.3212595428271</v>
+        <v>21.24610296406488</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.13293880801559</v>
+        <v>25.08122504286539</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.048295147637806</v>
+        <v>2.64116410249051</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.05889714285925</v>
+        <v>27.78127474055866</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.07855968591469</v>
+        <v>31.95420253837237</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.79581297718353</v>
+        <v>8.235656520094043</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.52105582721989</v>
+        <v>41.91080299286961</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.43057049497149</v>
+        <v>44.25801991652881</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.27471218579421</v>
+        <v>41.06883312419814</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.56082365835822</v>
+        <v>41.25735844861831</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>41.56662006753646</v>
+        <v>45.56029143952901</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.23892780599112</v>
+        <v>13.78254093787325</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.04990640358938</v>
+        <v>31.10859773610661</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>40.90020644753735</v>
+        <v>40.55019781960186</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.63437588063567</v>
+        <v>10.3843075028571</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.45990567520555</v>
+        <v>20.6665730275459</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.36387914143383</v>
+        <v>24.4711304056072</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.635017216691821</v>
+        <v>7.583556968796334</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.55496820487136</v>
+        <v>19.08565911694477</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.7007201317343</v>
+        <v>28.9506353135652</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>17.49672839340734</v>
+        <v>5.24756310611912</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.19595419599571</v>
+        <v>31.49272879122957</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>8.763744586145137</v>
+        <v>5.494562769248237</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.61918191431663</v>
+        <v>13.35338500652191</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.43901345006097</v>
+        <v>19.13131027325804</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>6.307462980085287</v>
+        <v>2.387159167260766</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.30165651854258</v>
+        <v>24.05497250640035</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.33030878564792</v>
+        <v>30.89015092134933</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.01447354421416</v>
+        <v>0.7034334061197889</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.72619234842846</v>
+        <v>34.18306013061886</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.64379789556213</v>
+        <v>38.17162662642144</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.51783758303221</v>
+        <v>27.8486631112846</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.80339071019829</v>
+        <v>29.11631144612409</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.8142199996163</v>
+        <v>31.45460241277286</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.50966077597293</v>
+        <v>5.75607881015225</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.29634702455652</v>
+        <v>23.23019795240814</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>40.16115949838211</v>
+        <v>36.65060275764986</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>9.944142667044062</v>
+        <v>6.046789864934514</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.75592435803117</v>
+        <v>19.1034101552129</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.66780093994205</v>
+        <v>24.18473342449046</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>6.891423159450667</v>
+        <v>7.595554071261208</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.79483075291245</v>
+        <v>19.96295436972114</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.94939893406882</v>
+        <v>29.61326106028969</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.71243779313218</v>
+        <v>1.745568992775507</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.39812374758715</v>
+        <v>26.16183380945549</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.52019460860916</v>
+        <v>13.59614876939365</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.97575539440054</v>
+        <v>10.0129821330512</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>37.27284543022201</v>
+        <v>23.1042218027968</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.46838603285675</v>
+        <v>28.64013124582765</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.43417509254486</v>
+        <v>3.454865877008675</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>33.32237214166071</v>
+        <v>5.85586960418755</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>40.07671656288225</v>
+        <v>9.854859431731601</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.27648745818161</v>
+        <v>11.33682386602073</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.87597290239127</v>
+        <v>16.74559205551032</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.99235244318712</v>
+        <v>28.83264502948589</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>15.12134171043521</v>
+        <v>7.553103406654206</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.87992157533383</v>
+        <v>8.986736072257859</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.1963768667712</v>
+        <v>13.65706317829373</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.89725586338804</v>
+        <v>2.767374510359279</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>40.36837021889948</v>
+        <v>12.47205165132673</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>45.59607574182031</v>
+        <v>29.9270857571639</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.59497342607698</v>
+        <v>13.71182065895022</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>49.20425977475054</v>
+        <v>35.92744005069355</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>52.60902316283159</v>
+        <v>40.91328749017222</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.01197587285199</v>
+        <v>5.302241323220134</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>44.27396580384737</v>
+        <v>9.390143123378213</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>51.26431193108468</v>
+        <v>17.47933266223987</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.96274390668904</v>
+        <v>37.09088042375834</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.35514251339597</v>
+        <v>34.78761061256665</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.67120966241422</v>
+        <v>42.96237694520312</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.86985349890287</v>
+        <v>45.77931965959803</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.72246040197126</v>
+        <v>15.13674447143325</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.70282915711953</v>
+        <v>36.84131136504855</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.45789531100186</v>
+        <v>39.18836629038339</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>18.54245830095003</v>
+        <v>20.38047759900235</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>33.20676839032786</v>
+        <v>29.38177431805582</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.32648306275627</v>
+        <v>36.25824792574076</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>16.47279465495529</v>
+        <v>8.857398904713538</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.30423782561916</v>
+        <v>33.29724968395814</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.62359636683944</v>
+        <v>37.41478243569244</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.34614338416172</v>
+        <v>6.981526722793436</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>41.88134046119204</v>
+        <v>48.26852778436535</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.11280171814349</v>
+        <v>55.77973098868597</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.04880510136235</v>
+        <v>62.25456977988154</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.67628713176704</v>
+        <v>69.29490383689819</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>54.0837085907534</v>
+        <v>73.52861961728939</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.37075664535767</v>
+        <v>29.91837440761873</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>45.72720961968236</v>
+        <v>57.05504281961359</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>52.71757535198375</v>
+        <v>61.62754692039198</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.19234373244115</v>
+        <v>43.9609015308918</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.57311808191263</v>
+        <v>30.37349538542296</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.88707115648533</v>
+        <v>35.35632848048262</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>42.08619585517088</v>
+        <v>45.13004388499516</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>16.92953223910359</v>
+        <v>10.01859892521205</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.91791881759883</v>
+        <v>35.14065405268822</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>41.67212023519468</v>
+        <v>39.59474409217728</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>18.74558705278036</v>
+        <v>16.90423718686788</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>33.4122463121613</v>
+        <v>29.13729190767205</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.53169197947951</v>
+        <v>36.87301608057848</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>16.70312571796017</v>
+        <v>8.455331858930609</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.53752389524105</v>
+        <v>31.42363570139233</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.85705370021284</v>
+        <v>40.06094298985496</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.58507129507403</v>
+        <v>9.188219420447016</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.12263597976075</v>
+        <v>51.29133521649359</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>47.35376504140405</v>
+        <v>62.24474649489818</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.27775829671276</v>
+        <v>63.39159664138049</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>50.9027971793402</v>
+        <v>67.33800299786603</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>54.31043934206096</v>
+        <v>76.91419904302623</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.58896050453718</v>
+        <v>19.26150512026681</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.95316777718988</v>
+        <v>53.96304828351106</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>52.94223323429482</v>
+        <v>64.97784173375229</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.40234003644458</v>
+        <v>40.33612725897578</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.81389001584626</v>
+        <v>15.56294116982435</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.12717988468614</v>
+        <v>20.9684090654804</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.33146789553444</v>
+        <v>33.02702643196821</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>16.19813253003473</v>
+        <v>6.282018203955946</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.16247314433176</v>
+        <v>34.11157900363446</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.93049492860067</v>
+        <v>39.64078686220842</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>18.0347630665033</v>
+        <v>11.98591385019234</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>32.68826635274065</v>
+        <v>28.09191827052959</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.81627753339891</v>
+        <v>39.10846729101408</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>15.9385833503442</v>
+        <v>8.543206490281197</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.75704401371637</v>
+        <v>29.69397488847799</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.08598406534528</v>
+        <v>42.77876393055962</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.77871831704708</v>
+        <v>4.208298300373091</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>41.30335581166937</v>
+        <v>42.73870418249484</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.54297272856034</v>
+        <v>61.14929896014289</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.49845072801416</v>
+        <v>48.08611561988562</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.123895264959</v>
+        <v>58.57217861392505</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>53.53732999826576</v>
+        <v>75.08436977653352</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.8356768387502</v>
+        <v>10.4290152371172</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>45.17703685152219</v>
+        <v>44.15159014732993</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.18084842579792</v>
+        <v>62.60262425173704</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>10.32657582322413</v>
+        <v>11.21586114499704</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.48379383564929</v>
+        <v>12.37434447191407</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.29956225366284</v>
+        <v>25.23422051648993</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>8.030017224135261</v>
+        <v>2.856743459204413</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.36133815537983</v>
+        <v>16.87712029289766</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.39158828877333</v>
+        <v>23.11322716404159</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.92827973138072</v>
+        <v>5.871383615613301</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.94367584508695</v>
+        <v>25.80701069113775</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.8558072208042</v>
+        <v>31.72990739767471</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.61623238143873</v>
+        <v>13.39433093977101</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.99399821321223</v>
+        <v>18.86996355887944</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.01329186078358</v>
+        <v>17.47781471435311</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>17.26233397246339</v>
+        <v>11.9250300030036</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.46748892399405</v>
+        <v>9.621143573762897</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>42.3465074874512</v>
+        <v>26.34632798999491</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>11.83890248096839</v>
+        <v>13.29792094158629</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.95641314448967</v>
+        <v>22.78098134472285</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.85181068219054</v>
+        <v>30.1707146084311</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.937920131768816</v>
+        <v>8.273231384631035</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>24.18297627284905</v>
+        <v>15.37962985993477</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.32534821531714</v>
+        <v>19.49540817082914</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.96977073048245</v>
+        <v>3.053373180629311</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.96302880528989</v>
+        <v>18.97082515631557</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>11.52582563506908</v>
+        <v>15.47433672169118</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.74704624964999</v>
+        <v>22.34676062289407</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.56561755021405</v>
+        <v>26.1460509806756</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>9.311908248529644</v>
+        <v>2.945489919519336</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>24.71513896377556</v>
+        <v>29.84152256099455</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.74775093246753</v>
+        <v>31.45928252131475</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>19.30202208956327</v>
+        <v>4.577919362739184</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.3807214898923</v>
+        <v>40.46656318960744</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>38.29601527709277</v>
+        <v>39.97604341303493</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.99657505442706</v>
+        <v>40.68841313386591</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.39330773981945</v>
+        <v>43.72014584163965</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.41514071653017</v>
+        <v>43.7131292220693</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>18.54923556265263</v>
+        <v>20.58256800508741</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.84772839469817</v>
+        <v>36.43814853745609</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.72622233282237</v>
+        <v>44.30742934410344</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>13.04353639691932</v>
+        <v>17.18110265454203</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.22494686797376</v>
+        <v>29.99494185045467</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>32.12384205805675</v>
+        <v>32.19457456672856</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.22457587222997</v>
+        <v>8.769422832280899</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.54143041913695</v>
+        <v>31.55638056471182</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.68683762880893</v>
+        <v>34.91160634300971</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.40532575484094</v>
+        <v>44.44522664629314</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.7173765315366</v>
+        <v>9.35271083425042</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.94105393046493</v>
+        <v>20.44193138003046</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.75951647540406</v>
+        <v>25.74030051898122</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>9.530701242791114</v>
+        <v>2.664392562367713</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.93696031240759</v>
+        <v>29.82369073593069</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.96988751745926</v>
+        <v>34.18202421950676</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>19.52858689191308</v>
+        <v>6.275638269087953</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.6097792044917</v>
+        <v>44.34822748526783</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.52490337272766</v>
+        <v>46.71767123619806</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.21462501440431</v>
+        <v>45.03787376601639</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.60922510217343</v>
+        <v>44.97050140572323</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.63159418551685</v>
+        <v>48.56069907790909</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>18.75582012298397</v>
+        <v>12.86970871692785</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>37.062619687812</v>
+        <v>31.85246610674085</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.93980243262772</v>
+        <v>41.834237448403</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.23404773842154</v>
+        <v>14.28241116685757</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.41774342875097</v>
+        <v>29.71690229489822</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.31666424259316</v>
+        <v>32.43958572746847</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.44228140740489</v>
+        <v>9.265866973299953</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.76201835517507</v>
+        <v>29.8250976575315</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.90784668721868</v>
+        <v>38.20495850310328</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>20.57432149298773</v>
+        <v>7.464510595070212</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.63308442263484</v>
+        <v>47.05579666089884</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>11.03218539224208</v>
+        <v>4.753350802365649</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.24233483265256</v>
+        <v>13.11632561983679</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.06910707092552</v>
+        <v>21.57780346624454</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>8.7931432348668</v>
+        <v>3.170522816739126</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.18317016527582</v>
+        <v>26.67537817734409</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.22528705008859</v>
+        <v>35.10002256965855</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>18.75092894769474</v>
+        <v>-0.1526180041394376</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.81877312638925</v>
+        <v>37.68145006737215</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>37.74214060021279</v>
+        <v>42.62567529700566</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.46140213679104</v>
+        <v>32.27912880863684</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.85551937040783</v>
+        <v>34.55773393892977</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.88302674855184</v>
+        <v>37.00431467891281</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.03006490153009</v>
+        <v>6.054857454968928</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.31277177297969</v>
+        <v>24.46802963376762</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.20468197430021</v>
+        <v>40.145049923188</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>12.54712936316472</v>
+        <v>9.674088714608818</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.71724971527684</v>
+        <v>27.90186970724985</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.62423493460262</v>
+        <v>32.96685022992109</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>9.702095323318655</v>
+        <v>8.780358003979362</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.00546645737964</v>
+        <v>29.28448298404179</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.16031710061068</v>
+        <v>38.41152570431788</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>19.79385000833576</v>
+        <v>3.089381997228376</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.83925096099516</v>
+        <v>39.90545983033812</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>37.94904671372996</v>
+        <v>24.87249017318844</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>34.22723690790988</v>
+        <v>19.31333726345713</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>40.63221648922246</v>
+        <v>36.65135959759479</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>43.84068284058873</v>
+        <v>41.55993589293598</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.2613230301373</v>
+        <v>7.656893928519285</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.64451916355867</v>
+        <v>15.81580188562285</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>43.41415849825366</v>
+        <v>20.7509865762211</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.19817437623875</v>
+        <v>10.943051542511</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.13200768822342</v>
+        <v>18.21810439783605</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>39.24728184798111</v>
+        <v>35.21355743561128</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>17.24589348255655</v>
+        <v>7.899486739143359</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.38119476354271</v>
+        <v>13.04192102083823</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38.7006584589353</v>
+        <v>19.23663334258118</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.23521894515137</v>
+        <v>1.573825128188279</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.04121579254939</v>
+        <v>18.02375447775714</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>48.2663717195322</v>
+        <v>39.85310282838944</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>45.12618982020848</v>
+        <v>19.42359163261154</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>51.84063186328108</v>
+        <v>47.06500619091267</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>55.26138455601378</v>
+        <v>54.09101359085631</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.14445623796948</v>
+        <v>5.328881029989535</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>46.88036603956638</v>
+        <v>17.45936593129926</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>53.88781596905676</v>
+        <v>26.63988512943064</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>39.39521019308192</v>
+        <v>50.78170433857747</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.61033177616342</v>
+        <v>50.20861977710386</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.03448079315682</v>
+        <v>58.73839011404006</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.24591498625524</v>
+        <v>60.65164296751274</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.55234025561538</v>
+        <v>21.50392415883013</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>38.02882140602406</v>
+        <v>51.9306079577516</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.79886490179716</v>
+        <v>52.98135782962225</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.46433768308724</v>
+        <v>19.04275083422874</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.46374643467377</v>
+        <v>32.78534642275048</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.58209439939412</v>
+        <v>42.18581122944465</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>18.59797883084727</v>
+        <v>9.723671250232716</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.80699842211371</v>
+        <v>41.82934785370244</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.12905838977771</v>
+        <v>45.54171125923355</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.68470071130249</v>
+        <v>5.21692599242721</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.55552809986192</v>
+        <v>57.32804644229125</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.7841804424742</v>
+        <v>66.80851667281732</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>46.58125564607408</v>
+        <v>70.73777855934293</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.31408490376843</v>
+        <v>80.28733063470145</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>56.73735931387392</v>
+        <v>85.418263143226</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.50354293947761</v>
+        <v>28.5700543024613</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>48.33503870011118</v>
+        <v>69.06673930959536</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.34222121731429</v>
+        <v>72.46502031902037</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>39.62294087718217</v>
+        <v>57.89775704733351</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.82661737576593</v>
+        <v>46.17155722788377</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>42.24861225715387</v>
+        <v>51.34995745708028</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>45.46047529277357</v>
+        <v>60.23759215614331</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>19.75785739555913</v>
+        <v>15.33587172250089</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>38.24218446329949</v>
+        <v>50.37312052567614</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.66618605605748</v>
+        <v>14.69482209642627</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.66781028251954</v>
+        <v>32.25675227918791</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.78580655309572</v>
+        <v>42.69525137666776</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.82693225962958</v>
+        <v>9.135599353105878</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>35.03875844672074</v>
+        <v>40.15584721828904</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.36088869319666</v>
+        <v>48.99431316749039</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.92209123450948</v>
+        <v>7.140204692073443</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>44.79515090720854</v>
+        <v>60.64206609247628</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>50.02339068089672</v>
+        <v>73.71822338927342</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>46.80861823941935</v>
+        <v>72.45883644357599</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>53.53896191639359</v>
+        <v>78.96967576016522</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>56.96239983799434</v>
+        <v>89.13826426554527</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.72028780088306</v>
+        <v>17.21290167939242</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>48.55937703648414</v>
+        <v>66.68023764267903</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>55.56515004118251</v>
+        <v>76.71160701873029</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.83708980971207</v>
+        <v>53.69119601316307</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.07115468684333</v>
+        <v>27.43687249954144</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>41.4925611908501</v>
+        <v>35.75169103251241</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.70969755802145</v>
+        <v>47.63695872067441</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.03007955748529</v>
+        <v>10.44234256287826</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.49056306793165</v>
+        <v>48.14707444229558</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.27366727702803</v>
+        <v>52.69649174008808</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.9589034033207</v>
+        <v>10.60963960031239</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.94750349327133</v>
+        <v>30.63259375563573</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.07421834874832</v>
+        <v>45.86883721206183</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.06602868806235</v>
+        <v>9.716269833360517</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.26206021005004</v>
+        <v>36.88397882430806</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.59378841781948</v>
+        <v>51.61590850353994</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.11981033672699</v>
+        <v>3.45058442651197</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.98007718915106</v>
+        <v>51.05590206557596</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.21695464170935</v>
+        <v>73.17483504916711</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>46.03331755163575</v>
+        <v>56.4444358313101</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.76413572702018</v>
+        <v>71.54096064052101</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>56.19347846077218</v>
+        <v>89.91780863766982</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.97088817907698</v>
+        <v>10.34620089162417</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>47.78728445918738</v>
+        <v>56.91997801523365</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.80800031777575</v>
+        <v>74.99094856379867</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>49.37457469537857</v>
+        <v>8.653034147110223</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>62.30505838130371</v>
+        <v>7.513871081794964</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>66.47307940036688</v>
+        <v>19.88853605820323</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>48.61727357500109</v>
+        <v>6.38705309194933</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>62.64226219526019</v>
+        <v>18.71654599725227</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>66.98148183046102</v>
+        <v>22.63226594337425</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>59.8018094487449</v>
+        <v>6.867816315392449</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>72.59824371037911</v>
+        <v>25.54007709134297</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>76.84955878782246</v>
+        <v>28.6003910406127</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>70.5643144241417</v>
+        <v>11.33511272469233</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>76.33912127038877</v>
+        <v>20.10384210034485</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>78.92705665413401</v>
+        <v>17.98039919599401</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>54.61983078746265</v>
+        <v>16.31470692843499</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>71.19792713135385</v>
+        <v>8.776053644234583</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>77.20376589954788</v>
+        <v>30.21888380588503</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>50.41495869396618</v>
+        <v>17.22931208687158</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>63.3029561485685</v>
+        <v>27.03902281205136</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>67.55191373078112</v>
+        <v>30.15902249862699</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>49.0686443282442</v>
+        <v>6.078396676939068</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>63.00581064150613</v>
+        <v>19.66650438311284</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>67.45418623979202</v>
+        <v>20.36399993350976</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>60.37886154994769</v>
+        <v>5.461864158718843</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>73.14901547801057</v>
+        <v>32.14714723176081</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>50.52067950701897</v>
+        <v>11.54289343951462</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>63.50961293885391</v>
+        <v>11.31893041398905</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>67.67932109877155</v>
+        <v>17.47519956725447</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>49.84089387261673</v>
+        <v>4.470934758884685</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>63.93164771522005</v>
+        <v>24.78837863398688</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>68.27205697364285</v>
+        <v>24.5925788521066</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>61.1112577691088</v>
+        <v>4.613068642482009</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>73.96547913224403</v>
+        <v>31.51266883782799</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>78.21878446536897</v>
+        <v>29.9667999699731</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>71.87428015097386</v>
+        <v>28.35874896948454</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>77.66613103879533</v>
+        <v>32.8851168443322</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>80.25591799179443</v>
+        <v>32.29578599806595</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>55.8431489189127</v>
+        <v>19.15795441762933</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>72.50650611265419</v>
+        <v>23.31655987701562</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>78.51112122745374</v>
+        <v>33.5244750525405</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>51.56670546790214</v>
+        <v>21.00238621434409</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>64.51304201147171</v>
+        <v>32.60045971970429</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>68.76436568703794</v>
+        <v>31.66964829938864</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>50.29723401055867</v>
+        <v>7.41276642426644</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>64.30003857713008</v>
+        <v>36.99193365450402</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>68.75025367278042</v>
+        <v>34.67305017417497</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>61.69397076868168</v>
+        <v>6.216453216543901</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>74.52180198832991</v>
+        <v>52.43534042150415</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>50.66889386285905</v>
+        <v>4.94945745475761</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>63.66015631884552</v>
+        <v>7.967273914362185</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>67.82958681961532</v>
+        <v>15.70352502998007</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>50.01303658449211</v>
+        <v>2.907286580156129</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>64.10664443706584</v>
+        <v>22.83330644625686</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>68.44714427688346</v>
+        <v>24.17629558358916</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>61.28901461366692</v>
+        <v>4.993956044039781</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>74.14559860238133</v>
+        <v>32.43711184289502</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>78.39857150494564</v>
+        <v>33.84060022838177</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>72.04636811246944</v>
+        <v>32.81312699056443</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>77.83632563350081</v>
+        <v>34.10629520638639</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>80.42653238816712</v>
+        <v>37.44230800001648</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.00528444987938</v>
+        <v>10.63821016329576</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>72.6763999319938</v>
+        <v>17.29323015442862</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>78.67952893581013</v>
+        <v>28.49037343935047</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>51.71438693367679</v>
+        <v>17.39916060052477</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>64.66290337715456</v>
+        <v>31.19532253183008</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>68.91407229448379</v>
+        <v>30.99520874425309</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>50.46882776925953</v>
+        <v>7.008169019660759</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>64.47436201096858</v>
+        <v>34.26643043194059</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>68.92476301052099</v>
+        <v>35.34719770960987</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>61.87118359024937</v>
+        <v>8.519375202699226</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>74.70121308093945</v>
+        <v>52.41321775997743</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>50.08708927305445</v>
+        <v>1.418645512351592</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>63.06603531646988</v>
+        <v>3.895484055959702</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>67.24313611494355</v>
+        <v>15.11963889037044</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>49.38454567472604</v>
+        <v>2.937830091704402</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>63.46334909167143</v>
+        <v>22.25045023808275</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>67.81233961261951</v>
+        <v>27.02649787039335</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>60.62657426067217</v>
+        <v>-0.9408982980760605</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>73.47101212213327</v>
+        <v>28.22298924866633</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>77.73160382249513</v>
+        <v>32.75054330627782</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>71.40329813818141</v>
+        <v>27.12991269985583</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>77.1929177099349</v>
+        <v>31.43720408294131</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>79.78775718055606</v>
+        <v>33.4689390398817</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>55.38629983460959</v>
+        <v>5.721477080534871</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>72.03540529067278</v>
+        <v>13.41139230061272</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>78.05182186905219</v>
+        <v>32.11530311112867</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>51.12985268587497</v>
+        <v>13.6754389292812</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>64.06600569382501</v>
+        <v>30.30578996958197</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>68.32460997327821</v>
+        <v>31.06444926972963</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>49.83678008918243</v>
+        <v>6.193905633446438</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>63.82738391615808</v>
+        <v>32.79431096997321</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>68.28611493696931</v>
+        <v>32.83899401069355</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>61.20492629887111</v>
+        <v>4.066175320556315</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>74.02279296743674</v>
+        <v>45.56075429818297</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>77.47637753406197</v>
+        <v>32.11148154148509</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>70.78376683511931</v>
+        <v>26.340278517082</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>76.5660271754265</v>
+        <v>43.16043732051546</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>79.33677535866333</v>
+        <v>42.37577337108749</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>55.19874675687929</v>
+        <v>16.50731525332316</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>71.92528389061009</v>
+        <v>25.54166698719601</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>77.84884280872528</v>
+        <v>30.03589492891686</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>56.21328402671733</v>
+        <v>16.87169049272029</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>69.86232586047927</v>
+        <v>25.25463955003989</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>74.29064794113113</v>
+        <v>40.55635533090697</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>55.68878889882501</v>
+        <v>5.593531398715417</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>70.45828681074077</v>
+        <v>18.96621252669633</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>75.0456927121151</v>
+        <v>23.82997553931529</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>67.79254172176076</v>
+        <v>4.422169760806074</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>81.32000328051083</v>
+        <v>33.43889148505613</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>85.84423450144054</v>
+        <v>47.99658484900303</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>79.73176016223466</v>
+        <v>28.45555470212367</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>85.81425354635932</v>
+        <v>51.87066518737282</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>88.75296317016395</v>
+        <v>55.61639196395021</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>62.34579313386683</v>
+        <v>13.45520315106285</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>80.34405017310755</v>
+        <v>31.73193157222645</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>86.4499645302093</v>
+        <v>39.87383641290623</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>78.85184573690886</v>
+        <v>52.10400454769983</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>72.09705190743426</v>
+        <v>53.25525264244595</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>77.89650548267613</v>
+        <v>59.21606192812882</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>80.66954378122975</v>
+        <v>57.36170010854822</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>56.42659263133547</v>
+        <v>28.2584642023177</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>73.23830486813624</v>
+        <v>55.32888407295245</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>79.1615547507924</v>
+        <v>52.4404255303896</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>57.4185020275831</v>
+        <v>22.47018294155658</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>56.97444005184933</v>
+        <v>8.068002849054157</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>71.81134566577543</v>
+        <v>47.64841001679176</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>76.40013051795938</v>
+        <v>46.91788468550666</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>69.16892659988099</v>
+        <v>7.674212624541102</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>82.75555634479245</v>
+        <v>64.99988991999999</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>87.28205573941958</v>
+        <v>67.91948177649488</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>81.1078183787275</v>
+        <v>70.209042502508</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>87.2067579541695</v>
+        <v>77.5681647760222</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>90.14728927656967</v>
+        <v>79.04191394671491</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>63.63304294525645</v>
+        <v>33.69662963412293</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>81.71858110094885</v>
+        <v>75.81370915466621</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>87.82351646745948</v>
+        <v>73.96186985649572</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>79.03105457611446</v>
+        <v>56.36346460587561</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>72.26797526611453</v>
+        <v>50.79284899372198</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>78.06553614479486</v>
+        <v>53.61864188241375</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>80.8388884488067</v>
+        <v>57.31283752259425</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>56.58820410537426</v>
+        <v>21.39494052169139</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>73.40726341182423</v>
+        <v>52.74482566377192</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>79.32933016284558</v>
+        <v>51.4494532648709</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>57.57692597223523</v>
+        <v>17.37115352621507</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>71.28794003688712</v>
+        <v>33.54247260123661</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>75.71767297405455</v>
+        <v>43.16451928482687</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>57.156760305945</v>
+        <v>6.97719059471007</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>71.99630896145247</v>
+        <v>46.10419544569228</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>76.58496277069648</v>
+        <v>48.00373138862497</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>69.35750689231695</v>
+        <v>8.537063615477567</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>82.94625195643931</v>
+        <v>66.69612757797617</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>87.47219847812593</v>
+        <v>72.45905295725865</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>81.28930500092007</v>
+        <v>72.78218492793985</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>87.38602679512431</v>
+        <v>78.67900230987362</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>90.32663306281317</v>
+        <v>82.95723745908373</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>63.80535473081613</v>
+        <v>22.74417677049616</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>81.89798154789591</v>
+        <v>75.01193933553364</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>88.00135683993533</v>
+        <v>77.17496977292379</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>78.36000206453144</v>
+        <v>51.0049925880452</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>71.62164314112738</v>
+        <v>35.36860839005095</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>77.41876226087054</v>
+        <v>41.19818703820934</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>80.19685983270502</v>
+        <v>44.3651025387796</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>55.9661990304557</v>
+        <v>15.78413426081588</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>72.76347137381499</v>
+        <v>48.16509180161337</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>78.69819115432573</v>
+        <v>48.01552607785408</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>56.97398328177835</v>
+        <v>14.48329161488033</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>70.67317224410955</v>
+        <v>35.0663353399527</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>75.11093915598806</v>
+        <v>46.91154862942247</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>56.50591455027124</v>
+        <v>8.339962820754412</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>71.33108954361033</v>
+        <v>45.56372518343233</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>75.92859182813346</v>
+        <v>49.93846320867095</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>68.67150381786797</v>
+        <v>6.196597597359702</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>82.24864064155271</v>
+        <v>62.36450005438081</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>86.78255753174739</v>
+        <v>73.24396959584709</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>80.6250940670497</v>
+        <v>66.03837908687672</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>86.7223954448834</v>
+        <v>79.00626457034622</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>89.66831063911137</v>
+        <v>86.37090315025478</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>63.16377819741089</v>
+        <v>17.91384340344104</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>81.23574488323925</v>
+        <v>71.35515389269614</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>87.3525668724357</v>
+        <v>79.30996680243538</v>
       </c>
     </row>
   </sheetData>
